--- a/Data/InflationCC.xlsx
+++ b/Data/InflationCC.xlsx
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -73,7 +73,7 @@
 • Other, please specify</t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 07/08/2022-07/15/2022</t>
+    <t>01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
@@ -113,7 +113,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
 </sst>
 </file>

--- a/Data/InflationCC.xlsx
+++ b/Data/InflationCC.xlsx
@@ -126,7 +126,7 @@
     <t>How has the increased costs of everyday items affected the decisions you make for your household?</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Have you or your center/program increased the cost of childcare in the last month?</t>
@@ -764,7 +764,7 @@
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1"/>

--- a/Data/InflationCC.xlsx
+++ b/Data/InflationCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgs3vt7+dQHK6NOr+bitdKSSfKpmQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rRofHObATgOwjvxK8hLJkpoX4J9959e8NOkpoU8pg9w="/>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -87,7 +87,7 @@
 • Not listed (please specify)</t>
   </si>
   <si>
-    <t>02/16/2023-02/23/2023</t>
+    <t>02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
@@ -137,7 +137,7 @@
 • I don't know </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
   </si>
 </sst>
 </file>

--- a/Data/InflationCC.xlsx
+++ b/Data/InflationCC.xlsx
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -87,7 +87,7 @@
 • Not listed (please specify)</t>
   </si>
   <si>
-    <t>02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
+    <t>02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
@@ -137,7 +137,7 @@
 • I don't know </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
 </sst>
 </file>

--- a/Data/InflationCC.xlsx
+++ b/Data/InflationCC.xlsx
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -87,7 +87,7 @@
 • Not listed (please specify)</t>
   </si>
   <si>
-    <t>02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
@@ -137,7 +137,7 @@
 • I don't know </t>
   </si>
   <si>
-    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>01/31/2022-02/07/2022 01/03/2022-01/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 10/04/2023-10/11/2023</t>
   </si>
 </sst>
 </file>
